--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohammed_anas\Documents\UiPath\Bill Of Materials EIC Unattended Thru Mail\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohammed_anas\Documents\UiPath\Bill Of Materials EIC\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -123,37 +123,31 @@
     <t>OrchestratorAssetFolder</t>
   </si>
   <si>
-    <t>C:\Users\mohammed_anas\Documents\Attachements\</t>
-  </si>
-  <si>
-    <t>Attachements Path</t>
+    <t>OracleCred</t>
+  </si>
+  <si>
+    <t>OracleCloud</t>
+  </si>
+  <si>
+    <t>Recepient</t>
+  </si>
+  <si>
+    <t>md.anasafzal@outlook.com</t>
+  </si>
+  <si>
+    <t>Credential for oracle cloud login</t>
+  </si>
+  <si>
+    <t>To send Exception/Validation sheet</t>
   </si>
   <si>
     <t>BoM_Path</t>
   </si>
   <si>
-    <t>C:\Users\mohammed_anas\Documents\UiPath\Bill Of Materials EIC Unattended Thru Mail\Data</t>
+    <t>C:\Users\mohammed_anas\Documents\UiPath\Bill Of Materials EIC\Data</t>
   </si>
   <si>
     <t>Template_FilePath</t>
-  </si>
-  <si>
-    <t>OracleCred</t>
-  </si>
-  <si>
-    <t>OracleCloud</t>
-  </si>
-  <si>
-    <t>Credential for oracle cloud login</t>
-  </si>
-  <si>
-    <t>Recepient</t>
-  </si>
-  <si>
-    <t>md.anasafzal@outlook.com</t>
-  </si>
-  <si>
-    <t>To send Exception/Validation sheet</t>
   </si>
   <si>
     <t>C:\Users\mohammed_anas\Documents\TemplateFiles</t>
@@ -169,7 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -193,6 +187,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -211,10 +211,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -224,8 +225,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -538,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z995"/>
+  <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -599,67 +602,59 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
-        <v>32</v>
+      <c r="C3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1">
       <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" ht="30">
+    <row r="5" spans="1:26" ht="15" customHeight="1">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15" customHeight="1">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15" customHeight="1">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="30">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1648,10 +1643,15 @@
     <row r="993" ht="14.25" customHeight="1"/>
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2770,7 +2770,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohammed_anas\Documents\UiPath\Bill Of Materials EIC\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohammed_anas\Documents\UiPath\Bill Of Materials EIC Unattended Thru Mail\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>C:\Users\mohammed_anas\Documents\EgpStructuresImport</t>
+  </si>
+  <si>
+    <t>Attachment_Path</t>
+  </si>
+  <si>
+    <t>C:\Users\mohammed_anas\Documents\Attachements</t>
   </si>
 </sst>
 </file>
@@ -544,7 +550,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -646,14 +652,22 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="30">
+    <row r="8" spans="1:26" ht="15" customHeight="1">
       <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="30">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
     </row>
